--- a/_Excel/ND/2024.12.17/Atsiskaitymas_iki_2024.12.17.xlsx
+++ b/_Excel/ND/2024.12.17/Atsiskaitymas_iki_2024.12.17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andrej\Projects\Mokykla\inf11\_Excel\ND\2024.12.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E1542-C88F-4ABA-BF43-049A03439B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD571D-465D-412E-8C12-F8A379FFDBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" firstSheet="1" activeTab="1" xr2:uid="{C840539D-85A3-49F7-9C6F-CF5F5F43D909}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="9601" firstSheet="1" activeTab="4" xr2:uid="{C840539D-85A3-49F7-9C6F-CF5F5F43D909}"/>
   </bookViews>
   <sheets>
     <sheet name="IFS" sheetId="1" r:id="rId1"/>
@@ -465,6 +465,123 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t>Nuo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> antros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> iki </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ketvirtos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="186"/>
+      </rPr>
+      <t xml:space="preserve"> dienos vidutinė megavatvalandės kaina</t>
+    </r>
+  </si>
+  <si>
+    <t>Vardas, pavardė</t>
+  </si>
+  <si>
+    <t>Aš mėgstu informatika</t>
+  </si>
+  <si>
+    <t>Rasti "Aš"</t>
+  </si>
+  <si>
+    <t>Rasti antrąją "m"</t>
+  </si>
+  <si>
+    <t>Rasti  "info"</t>
+  </si>
+  <si>
+    <t>Bet kartais Aš gaunu per mažai informacijos</t>
+  </si>
+  <si>
+    <t>Atsakymai</t>
+  </si>
+  <si>
+    <t>Parduotas kiekis</t>
+  </si>
+  <si>
+    <t>Produktas</t>
+  </si>
+  <si>
+    <t>Obuoliai</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Saulė</t>
+  </si>
+  <si>
+    <t>Kriaušės</t>
+  </si>
+  <si>
+    <t>Bananai</t>
+  </si>
+  <si>
+    <t>Morkos</t>
+  </si>
+  <si>
+    <t>Naudojant funkciją RIGHT() išvesti "informatika"</t>
+  </si>
+  <si>
+    <t>Frazė</t>
+  </si>
+  <si>
+    <t>Naudojant funkciją LEFT() išvesti "Aš mėgstu"</t>
+  </si>
+  <si>
+    <t>Suma už produktus, kurių pavadinimas prasideda B raide ir kuriuos pardavė Saulė</t>
+  </si>
+  <si>
+    <t>Suma už produktus, kurių pavadinimas ne Obuoliai ir kuriuos pardavė Tomas</t>
+  </si>
+  <si>
+    <t>Suma už produktus, kurių kiekis ne didesnis už 12 ir kuriuos pardavė Saulė</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">Nuo </t>
     </r>
     <r>
@@ -518,7 +635,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> [20;0]</t>
+      <t xml:space="preserve"> [20;23]</t>
     </r>
   </si>
   <si>
@@ -552,125 +669,8 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> [20;0]</t>
+      <t xml:space="preserve"> [20;23]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Nuo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> antros</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="186"/>
-      </rPr>
-      <t xml:space="preserve"> iki </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ketvirtos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="186"/>
-      </rPr>
-      <t xml:space="preserve"> dienos vidutinė megavatvalandės kaina</t>
-    </r>
-  </si>
-  <si>
-    <t>Vardas, pavardė</t>
-  </si>
-  <si>
-    <t>Aš mėgstu informatika</t>
-  </si>
-  <si>
-    <t>Rasti "Aš"</t>
-  </si>
-  <si>
-    <t>Rasti antrąją "m"</t>
-  </si>
-  <si>
-    <t>Rasti  "info"</t>
-  </si>
-  <si>
-    <t>Bet kartais Aš gaunu per mažai informacijos</t>
-  </si>
-  <si>
-    <t>Atsakymai</t>
-  </si>
-  <si>
-    <t>Parduotas kiekis</t>
-  </si>
-  <si>
-    <t>Produktas</t>
-  </si>
-  <si>
-    <t>Obuoliai</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Saulė</t>
-  </si>
-  <si>
-    <t>Kriaušės</t>
-  </si>
-  <si>
-    <t>Bananai</t>
-  </si>
-  <si>
-    <t>Morkos</t>
-  </si>
-  <si>
-    <t>Naudojant funkciją RIGHT() išvesti "informatika"</t>
-  </si>
-  <si>
-    <t>Frazė</t>
-  </si>
-  <si>
-    <t>Naudojant funkciją LEFT() išvesti "Aš mėgstu"</t>
-  </si>
-  <si>
-    <t>Suma už produktus, kurių pavadinimas prasideda B raide ir kuriuos pardavė Saulė</t>
-  </si>
-  <si>
-    <t>Suma už produktus, kurių pavadinimas ne Obuoliai ir kuriuos pardavė Tomas</t>
-  </si>
-  <si>
-    <t>Suma už produktus, kurių kiekis ne didesnis už 12 ir kuriuos pardavė Saulė</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADA0323-CEDB-409A-BD10-32E3DCE7F05B}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1703,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="92.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>134.85</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F0FF3-138A-460D-955B-8D3F5BBC7E8A}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -3299,7 +3299,7 @@
         <v>132.53</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E4" s="24"/>
     </row>
@@ -3314,7 +3314,7 @@
         <v>84.69</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E5" s="24"/>
     </row>
@@ -4620,10 +4620,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>15</v>
@@ -4634,10 +4634,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -4645,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
@@ -4656,10 +4656,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4667,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -4678,10 +4678,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -4689,10 +4689,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -4700,10 +4700,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
@@ -4711,28 +4711,28 @@
         <v>33</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="41"/>
     </row>
@@ -4757,15 +4757,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -4790,15 +4790,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -4824,21 +4824,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
